--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2569201.773641563</v>
+        <v>2567314.192125162</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>316.8519341425127</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>6.283679164003906</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -798,7 +798,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>23.25846416622949</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.2130834725789987</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>320.0830856925202</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>152.8263339283491</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>110.0115294480439</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>35.85115782931145</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>362.4006936231289</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>383.741428745805</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>129.0666178516128</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206848</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>75.80960945454498</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>206.8064269214863</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>136.6679073420997</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>269.2873277023713</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750033</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>256.343281175864</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>144.4496459784227</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>183.1796758467002</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>183.1796758467002</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2612,7 +2612,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>122.868035832152</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>109.7395205132417</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965538</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.2307060180122</v>
       </c>
       <c r="F31" t="n">
-        <v>78.67531269947796</v>
+        <v>90.21779139437427</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389791</v>
+        <v>60.15331472470127</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571495</v>
+        <v>55.21598883571502</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523575</v>
+        <v>54.76109577523583</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
         <v>196.934386695271</v>
@@ -3013,10 +3013,10 @@
         <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3253,7 +3253,7 @@
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224534</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463133</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1314.38774159731</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C2" t="n">
-        <v>945.4252246568988</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D2" t="n">
-        <v>945.4252246568988</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E2" t="n">
-        <v>945.4252246568988</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X2" t="n">
-        <v>1704.527073573122</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y2" t="n">
-        <v>1314.38774159731</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961344</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.1211692320162</v>
+        <v>386.0450565669176</v>
       </c>
       <c r="C4" t="n">
-        <v>338.1849863041093</v>
+        <v>386.0450565669176</v>
       </c>
       <c r="D4" t="n">
-        <v>338.1849863041093</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>675.2186669123496</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>675.2186669123496</v>
       </c>
       <c r="U4" t="n">
-        <v>727.9137483755463</v>
+        <v>386.0450565669176</v>
       </c>
       <c r="V4" t="n">
-        <v>727.9137483755463</v>
+        <v>386.0450565669176</v>
       </c>
       <c r="W4" t="n">
-        <v>727.9137483755463</v>
+        <v>386.0450565669176</v>
       </c>
       <c r="X4" t="n">
-        <v>727.9137483755463</v>
+        <v>386.0450565669176</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.1211692320162</v>
+        <v>386.0450565669176</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>751.6104138473588</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="C5" t="n">
-        <v>382.6478969069471</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="D5" t="n">
-        <v>382.6478969069471</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="E5" t="n">
-        <v>382.6478969069471</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="F5" t="n">
-        <v>375.7023961577436</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>361.7789920963345</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>1528.349585887292</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1138.210253911481</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="6">
@@ -4644,31 +4644,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.942782082032</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>477.6272702879189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>477.6272702879189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>222.942782082032</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>222.942782082032</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.942782082032</v>
+        <v>210.7222632714563</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
@@ -4838,16 +4838,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.086203674652</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>369.7691122461817</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
         <v>200.8329293182748</v>
@@ -4990,22 +4990,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>597.7586631441991</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>597.7586631441991</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>597.7586631441991</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>597.7586631441991</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>369.7691122461817</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>369.7691122461817</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643324</v>
@@ -5060,31 +5060,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>468.5954956259883</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>468.5954956259883</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>468.5954956259883</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>320.6824020435952</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>173.7924545456848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,7 +5203,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5218,31 +5218,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609662</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V13" t="n">
-        <v>986.0022165609662</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W13" t="n">
-        <v>696.5850465240056</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>468.5954956259883</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>468.5954956259883</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514096</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,16 +5352,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
         <v>1247.466478653857</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>506.0596387883054</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C16" t="n">
-        <v>506.0596387883054</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D16" t="n">
-        <v>506.0596387883054</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E16" t="n">
-        <v>506.0596387883054</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>898.7925182488382</v>
+        <v>892.0483501896665</v>
       </c>
       <c r="V16" t="n">
-        <v>644.1080300429513</v>
+        <v>637.3638619837797</v>
       </c>
       <c r="W16" t="n">
-        <v>644.1080300429513</v>
+        <v>637.3638619837797</v>
       </c>
       <c r="X16" t="n">
-        <v>644.1080300429513</v>
+        <v>637.3638619837797</v>
       </c>
       <c r="Y16" t="n">
-        <v>644.1080300429513</v>
+        <v>416.5712828402495</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5501,64 +5501,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M18" t="n">
-        <v>932.1883377003201</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>472.0965898562136</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581963</v>
       </c>
     </row>
     <row r="20">
@@ -5729,73 +5729,73 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,19 +5826,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.043068977054</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
         <v>2051.878056918008</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>390.0157722697343</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>390.0157722697343</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>390.0157722697343</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>390.0157722697343</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>243.1258247718239</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
         <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347408</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>1020.446367141521</v>
+        <v>835.4163915387937</v>
       </c>
       <c r="W22" t="n">
-        <v>1020.446367141521</v>
+        <v>545.9992215018332</v>
       </c>
       <c r="X22" t="n">
-        <v>792.456816243504</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>571.664237099974</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643324</v>
@@ -6054,19 +6054,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
         <v>674.428562457161</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>835.4163915387937</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018332</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6221,10 +6221,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514085</v>
@@ -6245,31 +6245,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,34 +6291,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
         <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>371.7442270155263</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C28" t="n">
-        <v>371.7442270155263</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>371.7442270155265</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>371.7442270155265</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>371.7442270155265</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1388.068270039477</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.210845262961</v>
+        <v>1388.068270039477</v>
       </c>
       <c r="V28" t="n">
-        <v>820.5263570570738</v>
+        <v>1133.38378183359</v>
       </c>
       <c r="W28" t="n">
-        <v>820.5263570570738</v>
+        <v>843.9666117966292</v>
       </c>
       <c r="X28" t="n">
-        <v>592.5368061590565</v>
+        <v>615.9770608986119</v>
       </c>
       <c r="Y28" t="n">
-        <v>371.7442270155263</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="29">
@@ -6440,40 +6440,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6482,28 +6482,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,13 +6528,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6543,19 +6543,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542179</v>
+        <v>604.564143816376</v>
       </c>
       <c r="C31" t="n">
-        <v>439.5324299542179</v>
+        <v>491.3888261698398</v>
       </c>
       <c r="D31" t="n">
-        <v>439.5324299542179</v>
+        <v>397.0330520388748</v>
       </c>
       <c r="E31" t="n">
-        <v>439.5324299542179</v>
+        <v>304.8808237378523</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264624</v>
+        <v>213.7517415213126</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276537</v>
+        <v>213.7517415213126</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933499</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667505</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962047</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.811824899269</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096192</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818929</v>
+        <v>902.6804289818917</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652462</v>
+        <v>730.4517433652451</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030869</v>
+        <v>730.4517433652451</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,7 +6689,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,28 +6698,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,7 +6853,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,7 +6889,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
@@ -6901,7 +6901,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,61 +7069,61 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649684</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860495</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384655</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025262</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7151,22 +7151,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
@@ -7175,25 +7175,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7205,13 +7205,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7318,10 +7318,10 @@
         <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,16 +7363,16 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
         <v>772.2886129010318</v>
@@ -7400,28 +7400,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7433,7 +7433,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
@@ -7646,52 +7646,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F46" t="n">
         <v>320.8847398504512</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9246,25 +9246,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>29.47535963978191</v>
       </c>
       <c r="M18" t="n">
-        <v>91.23759968302147</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,13 +9483,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N21" t="n">
-        <v>52.49733361305226</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229576</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23422,13 +23422,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>90.6839590088326</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23464,16 +23464,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>14.74113413690293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.16407283983762</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>16.95002469620601</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23938,13 +23938,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338594</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>29.89407122271336</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,10 +24136,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>22.04392248495489</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>103.0576765518771</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>103.0576765518771</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>43.62553263122555</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,10 +24649,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>111.8080405451476</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965533</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801214</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>11.54247869489627</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>33.55725701427788</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>7.105427357601002e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>808738.5104277352</v>
+        <v>808738.510427735</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>808738.5104277349</v>
+        <v>808738.510427735</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>808738.5104277352</v>
+        <v>808738.510427735</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>841114.3195232357</v>
+        <v>841114.3195232356</v>
       </c>
     </row>
     <row r="12">
@@ -26314,46 +26314,46 @@
         <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="E2" t="n">
         <v>566992.1366196777</v>
       </c>
       <c r="F2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="G2" t="n">
         <v>566992.1366196778</v>
       </c>
-      <c r="G2" t="n">
-        <v>566992.1366196777</v>
-      </c>
       <c r="H2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="I2" t="n">
         <v>566992.1366196778</v>
       </c>
-      <c r="I2" t="n">
-        <v>566992.1366196777</v>
-      </c>
       <c r="J2" t="n">
-        <v>566992.1366196777</v>
+        <v>566992.1366196775</v>
       </c>
       <c r="K2" t="n">
-        <v>589892.0991506414</v>
+        <v>589892.0991506415</v>
       </c>
       <c r="L2" t="n">
         <v>595255.2831516048</v>
       </c>
       <c r="M2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="N2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="O2" t="n">
         <v>595255.2831516048</v>
       </c>
       <c r="P2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516047</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.6053028454</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086691</v>
+        <v>10342.90680086696</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.60530284559</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007403</v>
       </c>
       <c r="F4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007455</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007496</v>
+        <v>7916.731656007454</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007458</v>
+        <v>7916.731656007493</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.354170204</v>
+        <v>26081.35417020399</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732799</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732793</v>
+        <v>30335.51889732798</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732793</v>
+        <v>30335.51889732791</v>
       </c>
       <c r="O4" t="n">
         <v>30335.51889732796</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732797</v>
       </c>
     </row>
     <row r="5">
@@ -26476,37 +26476,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.1058200254</v>
@@ -26522,46 +26522,46 @@
         <v>-225488.72284227</v>
       </c>
       <c r="C6" t="n">
-        <v>364479.1563722745</v>
+        <v>364479.1563722744</v>
       </c>
       <c r="D6" t="n">
-        <v>364479.1563722744</v>
+        <v>364479.1563722746</v>
       </c>
       <c r="E6" t="n">
-        <v>-58071.9574619426</v>
+        <v>-58169.41658791481</v>
       </c>
       <c r="F6" t="n">
-        <v>467088.0790149537</v>
+        <v>466990.6198889816</v>
       </c>
       <c r="G6" t="n">
-        <v>467088.0790149536</v>
+        <v>466990.6198889812</v>
       </c>
       <c r="H6" t="n">
-        <v>467088.0790149537</v>
+        <v>466990.6198889816</v>
       </c>
       <c r="I6" t="n">
-        <v>467088.0790149536</v>
+        <v>466990.6198889815</v>
       </c>
       <c r="J6" t="n">
-        <v>290664.8598223605</v>
+        <v>290567.4006963884</v>
       </c>
       <c r="K6" t="n">
-        <v>423019.931147369</v>
+        <v>423001.437409435</v>
       </c>
       <c r="L6" t="n">
         <v>456861.7516333846</v>
       </c>
       <c r="M6" t="n">
-        <v>332403.6432004145</v>
+        <v>332403.6432004143</v>
       </c>
       <c r="N6" t="n">
-        <v>467204.6584342512</v>
+        <v>467204.6584342513</v>
       </c>
       <c r="O6" t="n">
-        <v>467204.6584342515</v>
+        <v>467204.6584342514</v>
       </c>
       <c r="P6" t="n">
-        <v>423042.0531314058</v>
+        <v>423042.0531314057</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26738,22 +26738,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
@@ -26762,22 +26762,22 @@
         <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108363</v>
+        <v>12.9286335010837</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855696</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>90.0241115991987</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>48.1947234108078</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,16 +27433,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>188.8870747837894</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.0687907693987</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>86.79296004919127</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>171.096438836008</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>46.15935939375127</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>189.1839476287728</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27910,16 +27910,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.496509910248619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>95.96848760647151</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-1.800799509510398e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
     </row>
     <row r="32">
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32400,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
         <v>812.5369477415663</v>
@@ -35884,28 +35884,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958063</v>
       </c>
       <c r="M18" t="n">
-        <v>401.6619767334877</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N21" t="n">
-        <v>385.6919070110652</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504664</v>
@@ -36689,7 +36689,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412257</v>
+        <v>67.71102679412249</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491598</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004318</v>
+        <v>94.42895660043172</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734239</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
